--- a/src/test/resources/platformaccounts.xlsx
+++ b/src/test/resources/platformaccounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senel\Desktop\dinetapAdminpanel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EA48F1D-37E3-4669-B11D-71BE6F5CB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F56D305-5DC1-42A7-B3B1-65D4FB7FAF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0502A24-1FA8-40E8-9256-671F2D78DAB3}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>accountName</t>
-  </si>
-  <si>
     <t>accountId</t>
   </si>
   <si>
@@ -53,41 +50,44 @@
     <t>webhookSecretKey</t>
   </si>
   <si>
-    <t>senel@gmail.com</t>
-  </si>
-  <si>
-    <t>acct_1NGFvAELhx7onTSe</t>
-  </si>
-  <si>
-    <t>sk_test_1234567890</t>
-  </si>
-  <si>
-    <t>pk_test_1234567890</t>
-  </si>
-  <si>
-    <t>whsec_1234567890</t>
-  </si>
-  <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
-    <t>acct_1NGFvBELhx7onTSx</t>
-  </si>
-  <si>
-    <t>sk_test_abcde12345</t>
-  </si>
-  <si>
-    <t>pk_test_abcde12345</t>
-  </si>
-  <si>
-    <t>whsec_abcde12345</t>
+    <t>accountname</t>
+  </si>
+  <si>
+    <t>fortesting2</t>
+  </si>
+  <si>
+    <t>acct_1NGFvAELnumbfd1</t>
+  </si>
+  <si>
+    <t>sk_test_1234551233</t>
+  </si>
+  <si>
+    <t>pk_test_1234hhj123</t>
+  </si>
+  <si>
+    <t>whsec_123444512</t>
+  </si>
+  <si>
+    <t>fortesting3</t>
+  </si>
+  <si>
+    <t>acct_1NGFvAELbytf123</t>
+  </si>
+  <si>
+    <t>sk_test_1234554211</t>
+  </si>
+  <si>
+    <t>pk_test_1234kklv134</t>
+  </si>
+  <si>
+    <t>whsec_123vv1343</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,14 +99,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,11 +121,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -141,12 +132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,7 +469,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,25 +481,25 @@
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -528,8 +515,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -553,10 +540,6 @@
       <c r="E4" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:senel@gmail.com" xr:uid="{E980EDAE-DCBE-4923-8FB6-3754ACBD5B4C}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:john@example.com" xr:uid="{19B841C8-C440-4371-87B7-812307DABADF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>